--- a/medicine/Pharmacie/Catégories_de_médicaments/Catégories_de_médicaments.xlsx
+++ b/medicine/Pharmacie/Catégories_de_médicaments/Catégories_de_médicaments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+          <t>Catégories_de_médicaments</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">(Voir aussi : Classification anatomique, thérapeutique et chimique)
-Les catégories de médicaments sont des classifications utilisées pour regrouper les différents types de médicaments en fonction de leur utilisation, leurs composants, leur mode d'enregistrement réglementaire, etc[1].
+Les catégories de médicaments sont des classifications utilisées pour regrouper les différents types de médicaments en fonction de leur utilisation, leurs composants, leur mode d'enregistrement réglementaire, etc.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+          <t>Catégories_de_médicaments</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Analgésiques et Anti-inflammatoires
-Analgésiques d’action périphérique prépondérante
+          <t>Analgésiques et Anti-inflammatoires</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Analgésiques d’action périphérique prépondérante
 Analgésiques d’action centrale prépondérante
 Antispasmodiques
 Anti-inflammatoires non stéroïdiens = AINS
-Anti-inflammatoires stéroïdiens = Corticoïdes
-Antibiotiques et Antibactériens
-Bêta-lactamines
+Anti-inflammatoires stéroïdiens = Corticoïdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Antibiotiques et Antibactériens</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bêta-lactamines
 Aminosides = Aminoglycosides
 Macrolides et apparentés
 Antibiotiques ayant une action antistaphylococcique conservée
@@ -532,21 +583,157 @@
 Quinolones
 Dérivés nitro-imidazolés
 Antibiotiques divers
-Autres antibactériens
-Antituberculeux et Antilépreux
-Antituberculeux
-Antilépreux
-Antimycosiques
-Antifongiques peu ou pas résorbés par voie orale
+Autres antibactériens</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Antituberculeux et Antilépreux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Antituberculeux
+Antilépreux</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Antimycosiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Antifongiques peu ou pas résorbés par voie orale
 Antifongiques ayant une action systémique
 Antifongiques à usage local
-Antifongiques à usage gynécologique
-Antiviraux
-Antiviraux généraux actifs sur le VIH = Antirétroviraux
+Antifongiques à usage gynécologique</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Antiviraux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Antiviraux généraux actifs sur le VIH = Antirétroviraux
 Antres antiviraux généraux
-Antiviraux à usage local
-Cardiologie
-Bêta-bloquants
+Antiviraux à usage local</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cardiologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bêta-bloquants
 Dérivés nitrés
 Sydnonimines
 Activateurs des canaux potassiques
@@ -562,9 +749,43 @@
 Anti-ischémiques
 Veinotropes et antihémorroïdaires
 Médicaments de l’hypertension artérielle pulmonaire (HTAP)
-Divers
-Dermatologie
-Dermocorticoïdes = Corticoïdes percutanés
+Divers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dermatologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dermocorticoïdes = Corticoïdes percutanés
 Antiacnéiques
 Médicaments des affections du cuir chevelu
 Antiseptiques à usage externe
@@ -573,16 +794,84 @@
 Agents de détersion des plaies et cicatrisants
 Kératolytiques, réducteurs et antipsoriasiques
 Médicaments agissant sur la pigmentation
-Autres médicaments utilisés en dermatologie
-Diététique et Nutrition
-Éléments de diététique et nutrition
+Autres médicaments utilisés en dermatologie</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Diététique et Nutrition</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Éléments de diététique et nutrition
 Diététique pharmaceutique
 Médicaments utilisés dans les surcharges pondérales
 Orexigènes = stimulants de l’appétit
 Produits divers
-Nutrition artificielle
-Endocrinologie
-Hormones thyroïdiennes et antithyroïdiennes
+Nutrition artificielle</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Endocrinologie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Hormones thyroïdiennes et antithyroïdiennes
 Hormones surrénaliennes et anticortisoliques
 Antioestrogènes
 Androgènes
@@ -594,9 +883,43 @@
 Inhibiteurs de la sécrétion de prolactine
 Analogues de l’hormone antidiurétique : Desmopressine
 Inhibiteurs de la sécrétion de parathormone ou PTH
-Produits divers
-Gastro-entérologie et hépatologie
-Antireflux gastro-œsophagien
+Produits divers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Gastro-entérologie et hépatologie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Antireflux gastro-œsophagien
 Antiémétiques
 Antiulcéreux
 Antidiarrhéiques
@@ -607,38 +930,208 @@
 Pansements gastro-intestinaux
 Extraits pancréatiques
 Médicaments des infections hépato-biliaires
-Médicaments utilisés en soins intensifs
-Gynécologie obstétrique et contraception
-Contraception
+Médicaments utilisés en soins intensifs</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Gynécologie obstétrique et contraception</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Contraception
 Interruption de la grossesse
 Œstrogènes, progestérone et progestatifs de synthèse
 Inducteurs de l’ovulation
 Ocytociques
 Utérorelaxants
 Anti-infectieux locaux à usage gynécologique
-Autres produits
-Hématologie
-Antianémiques
+Autres produits</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Hématologie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Antianémiques
 Anticoagulants et antithrombotiques
 Antiagrégants plaquettaires
 Thrombolytiques
 Hémostatiques généraux
-Antres médicaments
-Immunologie Allergologie
-Antihistaminiques
+Antres médicaments</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Immunologie Allergologie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Antihistaminiques
 Immunodépresseurs
 Inhibiteurs de la C1 estérase
-Immunostimulants divers
-Médicaments des troubles métaboliques
-Troubles de la glycorégulation
+Immunostimulants divers</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Médicaments des troubles métaboliques</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Troubles de la glycorégulation
 Troubles du métabolisme des lipides
 Troubles du métabolisme du potassium
 Troubles du métabolisme phosphocalcique
 Vitamines
 Apports d’eau, d’ions et d’oligo-éléments
-Médicaments de troubles métaboliques rares
-Neurologie
-Analgésiques spécifiques de certaines douleurs rebelles
+Médicaments de troubles métaboliques rares</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Neurologie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Analgésiques spécifiques de certaines douleurs rebelles
 Antiépileptiques
 Antimigraineux
 Antiparkinsoniens
@@ -650,32 +1143,202 @@
 Antispastiques
 Toxines botuliques
 Immunomodulateurs utilisés dans la sclérose en plaques
-Autres médicaments
-Ophtalmologie
-Collyres d’examen et mydriatiques
+Autres médicaments</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Ophtalmologie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Collyres d’examen et mydriatiques
 Anti-infectieux locaux, cicatrisants, antioedémateux cornéens
 Antiviraux locaux en ophtalmologie
 Antiglaucomateux
-Médicaments divers utilisés en ophtalmologie
-Oto-rhino-laryngologie
-Décongestionnants ORL = Vasoconstricteurs ORL
+Médicaments divers utilisés en ophtalmologie</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Oto-rhino-laryngologie</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Décongestionnants ORL = Vasoconstricteurs ORL
 Autres médicaments utilisés par voie nasale
 Gouttes auriculaires
-Antivertigineux
-Parasitologie
-Antifongiques
+Antivertigineux</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Parasitologie</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Antifongiques
 Médicaments des protozooses
 Antihelminthiques
 Antiparasitaires d’usage externe
-Produits divers
-Pneumologie
-Bronchodilatateurs et antiasthmatiques
+Produits divers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Pneumologie</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Bronchodilatateurs et antiasthmatiques
 Fluidifiants ou Mucolytiques
 Analeptiques respiratoires
 Antitussifs
-Autres médicaments utilisés en pneumologie
-Psychiatrie
-Anxiolytiques = Tranquillisants dits mineurs
+Autres médicaments utilisés en pneumologie</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Psychiatrie</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Anxiolytiques = Tranquillisants dits mineurs
 Hypnotiques
 Antidépresseurs = Thymoanaleptiques
 Normothymiques = Thymorégulateurs
@@ -683,15 +1346,83 @@
 Psychostimulants = Nooanaleptiques
 Antiasthéniques divers
 Psychotropes divers non classables
-Médicaments utilisés contre les toxicomanies
-Réanimation toxicologie
-Apport d’eau, d’ions et apport d’oligo-éléments
+Médicaments utilisés contre les toxicomanies</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Réanimation toxicologie</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Apport d’eau, d’ions et apport d’oligo-éléments
 Solutés de remplissage vasculaire
 Nutrition entérale et parentérale
 Traitements utilisés dans les intoxications
-Divers
-Rhumatologie
-Analgésiques et anti-inflammatoires
+Divers</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Rhumatologie</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Analgésiques et anti-inflammatoires
 Troubles de métabolisme phosphocalcique
 Antigoutteux et Hypouricémiants
 Traitements des ostéopathies
@@ -699,29 +1430,165 @@
 Myorelaxants en antispastiques
 Enzymes utilisés pour la destruction des hernies discales
 Antiarthrosiques symptomatiques d’action lente
-Médicaments divers
-Stomatologie
-Médicaments anti-infectieux locaux
+Médicaments divers</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Stomatologie</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Médicaments anti-infectieux locaux
 Prévention des caries dentaires : fluor en stomatologie
 Correcteurs des hyposialies et xérostomies
 Produits utilisés dans les aphtes buccaux
-Produits utilisés dans les parodontopathies
-Urologie
-Antibactériens et antiseptiques urinaires
+Produits utilisés dans les parodontopathies</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Urologie</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Antibactériens et antiseptiques urinaires
 Modificateurs du pH urinaire
 Traitements des lithiases urinaires
 Médicaments de l’adénome prostatique
 Médicaments de la vessie instable
 Médicaments antiénurétiques
 Médicaments des impuissances
-Autres médicaments
-Vaccins, immunoglobulines, sérothérapie
-Vaccins
+Autres médicaments</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Vaccins, immunoglobulines, sérothérapie</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Vaccins
 Immunoglobulines humaines d’origine plasmatique
 Sérums hétérologues d’origine équine
-Divers
-Cancérologie
-Antimétabolites
+Divers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Cancérologie</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Antimétabolites
 Alkylants
 Intercalants
 Médicaments interagissant avec la tubuline
@@ -731,57 +1598,198 @@
 Anticancéreux divers
 Hormonothérapie en cancérologie
 Cytokines
-Cytoprotecteurs
-Anesthésiques locaux
-Anesthésiques locaux injectables
+Cytoprotecteurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Classification générale</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Anesthésiques locaux</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Anesthésiques locaux injectables
 Anesthésiques locaux de surface (non injectables)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cat%C3%A9gories_de_m%C3%A9dicaments</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Classification détaillée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Antiacides
-Bicarbonate de sodium
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Antiacides</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Bicarbonate de sodium
 Hydroxyde de magnésium
-Maalox
-Antagonistes du calcium (bloqueurs des canaux calciques)
-Dihydropyridines
+Maalox</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Antagonistes du calcium (bloqueurs des canaux calciques)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Dihydropyridines
 Amlodipine
 Félodipine
 Lercanidipine
 Nifédipine
 Nicardipine
 Diltiazem
-Vérapamil
-Antiagrégants plaquettaires
-Clopidogrel
-Aspirine
-Antiarythmiques
-Antiarythmiques
+Vérapamil</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Antiagrégants plaquettaires</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Clopidogrel
+Aspirine</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Antiarythmiques</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Antiarythmiques
 Molécules de Classe I
 Classe Ia
 Disopyramide
@@ -812,9 +1820,43 @@
 Vérapamil
 Classe V
 Adénosine
-Digoxine
-Antibiotiques
-Antibiotiques
+Digoxine</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Antibiotiques</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Antibiotiques
 Aminosides
 amikacine
 dibékacine
@@ -869,9 +1911,43 @@
 chloramphénicol
 clindamycine
 acide fusidique
-triméthoprime
-Anticholinergiques
-Anticholinergiques
+triméthoprime</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Anticholinergiques</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Anticholinergiques
 Antagonistes des récepteurs muscariniques
 Alcaloïdes de la belladone
 Atropine
@@ -895,9 +1971,43 @@
 Tubocurarine
 Vécuronium
 Agents bloquants musculaires dépolarisants
-Chlorure de suxamethonium
-Antiépileptiques
-Antiépileptiques
+Chlorure de suxamethonium</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Antiépileptiques</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Antiépileptiques
 Barbituriques
 Méthylphénobarbital
 Phénobarbital
@@ -952,34 +2062,272 @@
 Phénéturide
 Lévétiracétam
 Béclamide
-Bromure de potassium
-Anticoagulants circulants
-Fibrinogène
-Anticoagulants de type AVK
-Coumarines
-Acénocoumarol
-Antidiarrhéiques
-Antidiarrhéiques
-Lopéramide
-Antihistaminiques H1
-Cétirizine &amp; Lévocétirizine
+Bromure de potassium</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Anticoagulants circulants</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Fibrinogène</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Anticoagulants de type AVK</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Coumarines
+Acénocoumarol</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Antidiarrhéiques</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Antidiarrhéiques
+Lopéramide</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Antihistaminiques H1</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Cétirizine &amp; Lévocétirizine
 Desloratadine
 Loratadine
-Méquitazine
-Antihistaminiques H2
-Cimétidine
+Méquitazine</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Antihistaminiques H2</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Cimétidine
 Ranitidine
 Famotidine
-Nizatidine
-Antihypertenseurs
-Voir (dans cette liste) :
+Nizatidine</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Antihypertenseurs</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Voir (dans cette liste) :
 Bèta-bloquants
 Antagonistes du calcium
 Inhibiteurs de l'enzyme de conversion
 Inhibiteurs de l'angiotensine II
-Antihypertenseurs divers
-Antipsychotiques
-Antipsychotiques
+Antihypertenseurs divers</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Antipsychotiques</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Antipsychotiques
 Atypiques
 Aripiprazole
 Clozapine
@@ -999,17 +2347,119 @@
 Agonistes de la dopamine
 Aripiprazole
 Sels de lithium
-Phénothiazine
-Antispasmodiques
-Antispasmodiques
+Phénothiazine</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Antispasmodiques</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Antispasmodiques
 Alvérine
 Phloroglucinol
-Trimébutine
-Antithyroïdiens de synthèse
-Carbimazole
-Thiouracile
-Anxiolytiques
-Dépresseurs du système nerveux central
+Trimébutine</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Antithyroïdiens de synthèse</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Carbimazole
+Thiouracile</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Anxiolytiques</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Dépresseurs du système nerveux central
 Alcool
 Benzodiazépines
 Alprazolam
@@ -1030,9 +2480,43 @@
 Imidazopyridines
 alpidem
 zolpidem
-Barbituriques
-Bêta-bloquants
-Acébutolol
+Barbituriques</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Bêta-bloquants</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Acébutolol
 Aténolol
 Bisoprolol
 Carvédilol
@@ -1045,13 +2529,81 @@
 Pindolol
 Propranolol
 Sotalol
-Timolol
-Cardiotoniques
-Hétérosides
+Timolol</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Cardiotoniques</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Hétérosides
 Digoxine
-Digitoxine (Digitaline)
-Diurétiques
-Diurétiques
+Digitoxine (Digitaline)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Diurétiques</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Diurétiques
 Inhibiteurs de l'anhydrase carbonique
 Acétazolamide
 Dorzolamide
@@ -1063,39 +2615,311 @@
 Amiloride
 Spironolactone
 Thiazidiques
-Hydrochlorothiazide
-Hypnotiques
-Hypnotiques
+Hydrochlorothiazide</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Hypnotiques</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Hypnotiques
 Hydrate de chloral
 Ethchlorvynol
 Méthaqualone
 Autres hypnotiques
-Imovane
-Hypoglycémiants injectables
-Insulines
-Hypoglycémiants oraux
-Sulfamidés hypoglycémiants
-Guanidines
-Hypolipémiants
-Fibrates
+Imovane</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Hypoglycémiants injectables</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Insulines</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Hypoglycémiants oraux</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Sulfamidés hypoglycémiants
+Guanidines</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Hypolipémiants</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Fibrates
 Clofibrate
 Statines
 Cérivastatine
 Pravastatine
-Simvastatine
-Inhibiteurs de l'enzyme de conversion
-(IEC ou IECA)
+Simvastatine</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Inhibiteurs de l'enzyme de conversion</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(IEC ou IECA)
 Inhibiteurs de l'enzyme de conversion
 Captopril
 Fosinopril
 Périndopril
-Quinalapril
-Inhibiteurs de l'angiotensine II
-Inhibiteurs de l'angiotensine II voir (dans cette liste) Sartans
-Mucolytiques
-Tiopronine
-Nootropiques
-Nootropiques
+Quinalapril</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Inhibiteurs de l'angiotensine II</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Inhibiteurs de l'angiotensine II voir (dans cette liste) Sartans</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Mucolytiques</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Tiopronine</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Nootropiques</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Nootropiques
 Racétams
 Piracétam
 Aniracétam
@@ -1105,9 +2929,43 @@
 Pramiracétam
 Rolziracétam
 Mésilates
-DMAE
-Phényléthylamines
-Phénéthylamines
+DMAE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Phényléthylamines</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Phénéthylamines
 Phénéthylamines substituées
 Mescaline
 2C-B
@@ -1121,13 +2979,81 @@
 Amphétamines substituées
 2,5-diméthoxy-4-méthylamphétamine
 2,5-diméthoxy-4-bromoamphétamine (DOB)
-2,5-diméthoxy-4-iodoamphétamine (DOI)
-Sartans (Antagonistes de l'angiotensine II)
-Candésartan
+2,5-diméthoxy-4-iodoamphétamine (DOI)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sartans (Antagonistes de l'angiotensine II)</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Candésartan
 losartan
-Valsartan
-Triptans
-Almotriptan
+Valsartan</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Catégories_de_médicaments</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cat%C3%A9gories_de_m%C3%A9dicaments</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Triptans</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Almotriptan
 Élétriptan
 Frovatriptan
 Naratriptan
